--- a/output/classifier/dnn-top100dict-text+metafeatures.xlsx
+++ b/output/classifier/dnn-top100dict-text+metafeatures.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="13">
   <si>
     <t xml:space="preserve">FULL</t>
   </si>
@@ -58,6 +58,9 @@
   </si>
   <si>
     <t xml:space="preserve">_dnn_text+numeric+autodictext_N-fold results:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sum</t>
   </si>
 </sst>
 </file>
@@ -242,7 +245,7 @@
   <dimension ref="A1:IW40"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F19" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M33" activeCellId="1" sqref="M23:Q30 M33"/>
+      <selection pane="topLeft" activeCell="M33" activeCellId="0" sqref="M33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.65" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2050,8 +2053,8 @@
   </sheetPr>
   <dimension ref="A1:IW40"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G18" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M23" activeCellId="0" sqref="M23:Q30"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="K1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="V14" activeCellId="0" sqref="V14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.65" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2753,6 +2756,17 @@
       <c r="Q13" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="T13" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="U13" s="0" t="n">
+        <f aca="false">SUM(S14:S19,S24:S29,S34:S39)</f>
+        <v>0.28</v>
+      </c>
+      <c r="V13" s="0" t="n">
+        <f aca="false">U13/18</f>
+        <v>0.0155555555555556</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="n">
@@ -2800,6 +2814,10 @@
       <c r="Q14" s="0" t="n">
         <v>892</v>
       </c>
+      <c r="S14" s="0" t="n">
+        <f aca="false">ABS(N14-O14)</f>
+        <v>0.03</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="n">
@@ -2847,6 +2865,10 @@
       <c r="Q15" s="0" t="n">
         <v>365</v>
       </c>
+      <c r="S15" s="0" t="n">
+        <f aca="false">ABS(N15-O15)</f>
+        <v>0.01</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="n">
@@ -2894,6 +2916,10 @@
       <c r="Q16" s="0" t="n">
         <v>273</v>
       </c>
+      <c r="S16" s="0" t="n">
+        <f aca="false">ABS(N16-O16)</f>
+        <v>0.0299999999999999</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="n">
@@ -2941,6 +2967,10 @@
       <c r="Q17" s="0" t="n">
         <v>963</v>
       </c>
+      <c r="S17" s="0" t="n">
+        <f aca="false">ABS(N17-O17)</f>
+        <v>0.02</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="n">
@@ -2988,6 +3018,10 @@
       <c r="Q18" s="0" t="n">
         <v>274</v>
       </c>
+      <c r="S18" s="0" t="n">
+        <f aca="false">ABS(N18-O18)</f>
+        <v>0.04</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="n">
@@ -3034,6 +3068,10 @@
       </c>
       <c r="Q19" s="0" t="n">
         <v>333</v>
+      </c>
+      <c r="S19" s="0" t="n">
+        <f aca="false">ABS(N19-O19)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3082,8 +3120,17 @@
       <c r="Q20" s="0" t="n">
         <v>3100</v>
       </c>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="S20" s="0" t="n">
+        <f aca="false">ABS(N20-O20)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="S21" s="0" t="n">
+        <f aca="false">ABS(N21-O21)</f>
+        <v>0</v>
+      </c>
+    </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
         <v>10</v>
@@ -3094,6 +3141,10 @@
       <c r="M22" s="0" t="s">
         <v>10</v>
       </c>
+      <c r="S22" s="0" t="n">
+        <f aca="false">ABS(N22-O22)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="0" t="s">
@@ -3131,6 +3182,10 @@
       </c>
       <c r="Q23" s="0" t="s">
         <v>7</v>
+      </c>
+      <c r="S23" s="0" t="e">
+        <f aca="false">ABS(N23-O23)</f>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3179,6 +3234,10 @@
       <c r="Q24" s="0" t="n">
         <v>892</v>
       </c>
+      <c r="S24" s="0" t="n">
+        <f aca="false">ABS(N24-O24)</f>
+        <v>0.01</v>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="n">
@@ -3226,6 +3285,10 @@
       <c r="Q25" s="0" t="n">
         <v>365</v>
       </c>
+      <c r="S25" s="0" t="n">
+        <f aca="false">ABS(N25-O25)</f>
+        <v>0.01</v>
+      </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="n">
@@ -3273,6 +3336,10 @@
       <c r="Q26" s="0" t="n">
         <v>273</v>
       </c>
+      <c r="S26" s="0" t="n">
+        <f aca="false">ABS(N26-O26)</f>
+        <v>0.02</v>
+      </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="n">
@@ -3320,6 +3387,10 @@
       <c r="Q27" s="0" t="n">
         <v>963</v>
       </c>
+      <c r="S27" s="0" t="n">
+        <f aca="false">ABS(N27-O27)</f>
+        <v>0.01</v>
+      </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="n">
@@ -3367,6 +3438,10 @@
       <c r="Q28" s="0" t="n">
         <v>274</v>
       </c>
+      <c r="S28" s="0" t="n">
+        <f aca="false">ABS(N28-O28)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="n">
@@ -3413,6 +3488,10 @@
       </c>
       <c r="Q29" s="0" t="n">
         <v>333</v>
+      </c>
+      <c r="S29" s="0" t="n">
+        <f aca="false">ABS(N29-O29)</f>
+        <v>0.01</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3461,8 +3540,17 @@
       <c r="Q30" s="0" t="n">
         <v>3100</v>
       </c>
-    </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="S30" s="0" t="n">
+        <f aca="false">ABS(N30-O30)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="S31" s="0" t="n">
+        <f aca="false">ABS(N31-O31)</f>
+        <v>0</v>
+      </c>
+    </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
         <v>11</v>
@@ -3473,6 +3561,10 @@
       <c r="M32" s="0" t="s">
         <v>11</v>
       </c>
+      <c r="S32" s="0" t="n">
+        <f aca="false">ABS(N32-O32)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B33" s="0" t="s">
@@ -3510,6 +3602,10 @@
       </c>
       <c r="Q33" s="0" t="s">
         <v>7</v>
+      </c>
+      <c r="S33" s="0" t="e">
+        <f aca="false">ABS(N33-O33)</f>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3558,6 +3654,10 @@
       <c r="Q34" s="0" t="n">
         <v>892</v>
       </c>
+      <c r="S34" s="0" t="n">
+        <f aca="false">ABS(N34-O34)</f>
+        <v>0.02</v>
+      </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="n">
@@ -3605,6 +3705,10 @@
       <c r="Q35" s="0" t="n">
         <v>365</v>
       </c>
+      <c r="S35" s="0" t="n">
+        <f aca="false">ABS(N35-O35)</f>
+        <v>0.01</v>
+      </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="n">
@@ -3652,6 +3756,10 @@
       <c r="Q36" s="0" t="n">
         <v>273</v>
       </c>
+      <c r="S36" s="0" t="n">
+        <f aca="false">ABS(N36-O36)</f>
+        <v>0.01</v>
+      </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="n">
@@ -3699,6 +3807,10 @@
       <c r="Q37" s="0" t="n">
         <v>963</v>
       </c>
+      <c r="S37" s="0" t="n">
+        <f aca="false">ABS(N37-O37)</f>
+        <v>0.01</v>
+      </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="n">
@@ -3746,6 +3858,10 @@
       <c r="Q38" s="0" t="n">
         <v>274</v>
       </c>
+      <c r="S38" s="0" t="n">
+        <f aca="false">ABS(N38-O38)</f>
+        <v>0.01</v>
+      </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="n">
@@ -3792,6 +3908,10 @@
       </c>
       <c r="Q39" s="0" t="n">
         <v>333</v>
+      </c>
+      <c r="S39" s="0" t="n">
+        <f aca="false">ABS(N39-O39)</f>
+        <v>0.03</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3839,6 +3959,10 @@
       </c>
       <c r="Q40" s="0" t="n">
         <v>3100</v>
+      </c>
+      <c r="S40" s="0" t="n">
+        <f aca="false">ABS(N40-O40)</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -3860,7 +3984,7 @@
   <dimension ref="A1:IW40"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D19" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M33" activeCellId="1" sqref="M23:Q30 M33"/>
+      <selection pane="topLeft" activeCell="M33" activeCellId="0" sqref="M33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.65" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
